--- a/PCB/EDAMAME_S/BOM.xlsx
+++ b/PCB/EDAMAME_S/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2325FA89-3D72-4F46-A2D7-199E740344E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450A0AA8-B53F-42ED-BD57-DB82EE58AD9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="10200" xr2:uid="{D0E7F504-669F-4FF1-8B53-0F446DD9CCE1}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="192">
   <si>
     <t xml:space="preserve">    BT1</t>
   </si>
@@ -705,6 +705,15 @@
   <si>
     <t>2.54mmピッチ 1x19 ピンヘッダ</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    J5</t>
+  </si>
+  <si>
+    <t>FlightPin</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Horizontal</t>
   </si>
 </sst>
 </file>
@@ -1100,11 +1109,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8329D3BB-A78D-41CD-9E28-997B28F6FD59}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1893,50 +1900,50 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
       <c r="G39" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G40" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>76</v>
@@ -1950,43 +1957,39 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
       <c r="G42" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>182</v>
+        <v>73</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -1994,26 +1997,28 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="G44" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>84</v>
@@ -2032,7 +2037,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>84</v>
@@ -2051,7 +2056,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>84</v>
@@ -2070,7 +2075,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>84</v>
@@ -2089,10 +2094,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>85</v>
@@ -2108,7 +2113,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>91</v>
@@ -2127,10 +2132,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>85</v>
@@ -2146,7 +2151,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>94</v>
@@ -2165,7 +2170,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>94</v>
@@ -2184,10 +2189,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="1">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>85</v>
@@ -2203,10 +2208,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="B55" s="1">
+        <v>100</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>85</v>
@@ -2222,10 +2227,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="1">
-        <v>33</v>
+        <v>98</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>85</v>
@@ -2241,7 +2246,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B57" s="1">
         <v>33</v>
@@ -2260,10 +2265,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="B58" s="1">
+        <v>33</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>85</v>
@@ -2279,7 +2284,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>94</v>
@@ -2298,15 +2303,17 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1">
@@ -2315,10 +2322,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>85</v>
@@ -2332,10 +2339,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>85</v>
@@ -2349,76 +2356,72 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" t="s">
-        <v>184</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>182</v>
-      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
       <c r="G63" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="E64" t="s">
+        <v>184</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="G64" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="D65" s="1"/>
-      <c r="E65" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
       <c r="G65" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>3</v>
@@ -2429,22 +2432,20 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="G67" s="1">
         <v>1</v>
@@ -2452,19 +2453,19 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>73</v>
@@ -2472,25 +2473,22 @@
       <c r="G68" s="1">
         <v>1</v>
       </c>
-      <c r="H68" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>73</v>
@@ -2498,20 +2496,25 @@
       <c r="G69" s="1">
         <v>1</v>
       </c>
+      <c r="H69" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E70" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>73</v>
@@ -2519,25 +2522,20 @@
       <c r="G70" s="1">
         <v>1</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>73</v>
@@ -2545,25 +2543,28 @@
       <c r="G71" s="1">
         <v>1</v>
       </c>
+      <c r="H71" s="2" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="G72" s="1">
         <v>1</v>
@@ -2571,20 +2572,22 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D73" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E73" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="G73" s="1">
         <v>1</v>
@@ -2592,22 +2595,20 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -2615,45 +2616,42 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="G75" s="1">
         <v>1</v>
-      </c>
-      <c r="H75" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>73</v>
@@ -2661,9 +2659,35 @@
       <c r="G76" s="1">
         <v>1</v>
       </c>
+      <c r="H76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H76" xr:uid="{F3220901-6B46-4C3C-BD27-58D108F68081}"/>
+  <autoFilter ref="A1:H77" xr:uid="{F3220901-6B46-4C3C-BD27-58D108F68081}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/PCB/EDAMAME_S/BOM.xlsx
+++ b/PCB/EDAMAME_S/BOM.xlsx
@@ -3,15 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450A0AA8-B53F-42ED-BD57-DB82EE58AD9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326524B4-12CC-4C92-A053-227A0979BCD2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="10200" xr2:uid="{D0E7F504-669F-4FF1-8B53-0F446DD9CCE1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="10200" activeTab="1" xr2:uid="{D0E7F504-669F-4FF1-8B53-0F446DD9CCE1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="基板実装表" sheetId="1" r:id="rId1"/>
+    <sheet name="その他必要な物" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">その他必要な物!$A$1:$F$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">基板実装表!$A$1:$H$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="240">
   <si>
     <t xml:space="preserve">    BT1</t>
   </si>
@@ -714,13 +716,245 @@
   </si>
   <si>
     <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>品名</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPSモジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペーサー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しっぽ押え(上)</t>
+    <rPh sb="3" eb="4">
+      <t>オサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しっぽ押え(下）</t>
+    <rPh sb="3" eb="4">
+      <t>オサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーター固定具</t>
+    <rPh sb="4" eb="6">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>グ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電池</t>
+    <rPh sb="0" eb="2">
+      <t>デンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA12W006000202R</t>
+  </si>
+  <si>
+    <t>M-12918</t>
+  </si>
+  <si>
+    <t>秋月</t>
+    <rPh sb="0" eb="2">
+      <t>アキヅキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーター用コネクタ</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>546-8237</t>
+  </si>
+  <si>
+    <t>RS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EHR-2</t>
+  </si>
+  <si>
+    <t>311-6209</t>
+  </si>
+  <si>
+    <t>RS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M-09990</t>
+  </si>
+  <si>
+    <t>TP-11.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P-07562</t>
+  </si>
+  <si>
+    <t>ナット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３ｍｍ六角ナット　Ｍ３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P-03584</t>
+  </si>
+  <si>
+    <t>３ｍｍプラネジ（８ｍｍ）</t>
+  </si>
+  <si>
+    <t>P-10359</t>
+  </si>
+  <si>
+    <t>プラナット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラネジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メーカー型番等</t>
+    <rPh sb="4" eb="6">
+      <t>カタバン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M2x6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M2x10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hub.stl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TailFixture_1.stl</t>
+  </si>
+  <si>
+    <t>TailFixture_2.stl</t>
+  </si>
+  <si>
+    <t>Tire.stl</t>
+  </si>
+  <si>
+    <t>MotorFixture.stl</t>
+  </si>
+  <si>
+    <t>Li-ion 10440</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニクロム線</t>
+    <rPh sb="4" eb="5">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Φ0.3mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メジャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テグス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルミ蒸着膜</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウチャク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防災シート</t>
+    <rPh sb="0" eb="2">
+      <t>ボウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>樹脂パーツ</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラシュート用</t>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,6 +967,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -785,7 +1027,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +1035,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1111,7 +1359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8329D3BB-A78D-41CD-9E28-997B28F6FD59}">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1949,8 +2199,12 @@
         <v>76</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="G41" s="1">
         <v>1</v>
       </c>
@@ -1966,8 +2220,12 @@
         <v>76</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="G42" s="1">
         <v>1</v>
       </c>
@@ -2692,4 +2950,348 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D28E152-36C0-4AB4-9545-883E0252F79B}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F20" xr:uid="{8A0464A7-0C31-488F-8F6C-B6AD6F2BFFE0}"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>